--- a/04 Sales Database.xlsx
+++ b/04 Sales Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mipc\Documents\Frontend projects\01 FreeCodeCamp\02 Online Courses from YouTube FreeCodeCamp Channel\Excel from the Beginning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4485353-F2C7-479E-97C0-67E4D62A01F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1985EE06-4AB2-42C0-8D71-BFCB833F2AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -330,12 +330,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -617,7 +616,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="25400">
             <a:solidFill>
@@ -711,7 +710,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="25400">
             <a:solidFill>
@@ -756,13 +755,22 @@
               <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="25400">
             <a:solidFill>
@@ -807,6 +815,15 @@
               <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -1031,13 +1048,14 @@
                   <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
-              <c:showLegendKey val="0"/>
+              <c:showLegendKey val="1"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-BA33-4C42-A96D-D1A3799775B1}"/>
                 </c:ext>
@@ -1074,13 +1092,14 @@
                   <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
-              <c:showLegendKey val="0"/>
+              <c:showLegendKey val="1"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-BA33-4C42-A96D-D1A3799775B1}"/>
                 </c:ext>
@@ -4210,7 +4229,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77E275B7-9899-483B-909E-255B3E8751FE}" name="Draaitabel1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77E275B7-9899-483B-909E-255B3E8751FE}" name="Draaitabel1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -4655,7 +4674,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4665,7 +4684,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
@@ -4673,7 +4692,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="3">
@@ -4681,7 +4700,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="3">
@@ -4689,7 +4708,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="3">
@@ -4697,7 +4716,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="3">
@@ -4705,7 +4724,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="3">
@@ -4723,8 +4742,8 @@
   <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:K172"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4736,43 +4755,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" s="6" customFormat="1">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -4792,11 +4811,11 @@
         <v>98.4</v>
       </c>
       <c r="G2" s="3">
-        <f>F2-E2</f>
+        <f t="shared" ref="G2:G33" si="0">F2-E2</f>
         <v>40.100000000000009</v>
       </c>
       <c r="H2" s="3">
-        <f>IF(F2&gt;50,G2*0.2,G2*0.01)</f>
+        <f t="shared" ref="H2:H33" si="1">IF(F2&gt;50,G2*0.2,G2*0.01)</f>
         <v>8.0200000000000014</v>
       </c>
       <c r="I2" t="s">
@@ -4831,11 +4850,11 @@
         <v>16.3</v>
       </c>
       <c r="G3" s="3">
-        <f>F3-E3</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H3" s="3">
-        <f>IF(F3&gt;50,G3*0.2,G3*0.01)</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I3" t="s">
@@ -4871,11 +4890,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G4" s="3">
-        <f>F4-E4</f>
+        <f t="shared" si="0"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H4" s="3">
-        <f>IF(F4&gt;50,G4*0.2,G4*0.01)</f>
+        <f t="shared" si="1"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I4" t="s">
@@ -4911,11 +4930,11 @@
         <v>502</v>
       </c>
       <c r="G5" s="3">
-        <f>F5-E5</f>
+        <f t="shared" si="0"/>
         <v>158</v>
       </c>
       <c r="H5" s="3">
-        <f>IF(F5&gt;50,G5*0.2,G5*0.01)</f>
+        <f t="shared" si="1"/>
         <v>31.6</v>
       </c>
       <c r="I5" t="s">
@@ -4951,11 +4970,11 @@
         <v>8</v>
       </c>
       <c r="G6" s="3">
-        <f>F6-E6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H6" s="3">
-        <f>IF(F6&gt;50,G6*0.2,G6*0.01)</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I6" t="s">
@@ -4991,11 +5010,11 @@
         <v>98.4</v>
       </c>
       <c r="G7" s="3">
-        <f>F7-E7</f>
+        <f t="shared" si="0"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H7" s="3">
-        <f>IF(F7&gt;50,G7*0.2,G7*0.01)</f>
+        <f t="shared" si="1"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I7" t="s">
@@ -5007,7 +5026,7 @@
       <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5031,11 +5050,11 @@
         <v>8</v>
       </c>
       <c r="G8" s="3">
-        <f>F8-E8</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H8" s="3">
-        <f>IF(F8&gt;50,G8*0.2,G8*0.01)</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I8" t="s">
@@ -5047,7 +5066,7 @@
       <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5071,11 +5090,11 @@
         <v>16.3</v>
       </c>
       <c r="G9" s="3">
-        <f>F9-E9</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H9" s="3">
-        <f>IF(F9&gt;50,G9*0.2,G9*0.01)</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I9" t="s">
@@ -5087,7 +5106,7 @@
       <c r="K9" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5111,11 +5130,11 @@
         <v>8</v>
       </c>
       <c r="G10" s="3">
-        <f>F10-E10</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H10" s="3">
-        <f>IF(F10&gt;50,G10*0.2,G10*0.01)</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I10" t="s">
@@ -5148,11 +5167,11 @@
         <v>16.3</v>
       </c>
       <c r="G11" s="3">
-        <f>F11-E11</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H11" s="3">
-        <f>IF(F11&gt;50,G11*0.2,G11*0.01)</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I11" t="s">
@@ -5185,11 +5204,11 @@
         <v>16.3</v>
       </c>
       <c r="G12" s="3">
-        <f>F12-E12</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H12" s="3">
-        <f>IF(F12&gt;50,G12*0.2,G12*0.01)</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I12" t="s">
@@ -5222,11 +5241,11 @@
         <v>87</v>
       </c>
       <c r="G13" s="3">
-        <f>F13-E13</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="H13" s="3">
-        <f>IF(F13&gt;50,G13*0.2,G13*0.01)</f>
+        <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
       <c r="I13" t="s">
@@ -5259,11 +5278,11 @@
         <v>7</v>
       </c>
       <c r="G14" s="3">
-        <f>F14-E14</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <f>IF(F14&gt;50,G14*0.2,G14*0.01)</f>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="I14" t="s">
@@ -5296,11 +5315,11 @@
         <v>502</v>
       </c>
       <c r="G15" s="3">
-        <f>F15-E15</f>
+        <f t="shared" si="0"/>
         <v>158</v>
       </c>
       <c r="H15" s="3">
-        <f>IF(F15&gt;50,G15*0.2,G15*0.01)</f>
+        <f t="shared" si="1"/>
         <v>31.6</v>
       </c>
       <c r="I15" t="s">
@@ -5333,11 +5352,11 @@
         <v>16.3</v>
       </c>
       <c r="G16" s="3">
-        <f>F16-E16</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H16" s="3">
-        <f>IF(F16&gt;50,G16*0.2,G16*0.01)</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I16" t="s">
@@ -5370,11 +5389,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G17" s="3">
-        <f>F17-E17</f>
+        <f t="shared" si="0"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H17" s="3">
-        <f>IF(F17&gt;50,G17*0.2,G17*0.01)</f>
+        <f t="shared" si="1"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I17" t="s">
@@ -5407,11 +5426,11 @@
         <v>124</v>
       </c>
       <c r="G18" s="3">
-        <f>F18-E18</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="H18" s="3">
-        <f>IF(F18&gt;50,G18*0.2,G18*0.01)</f>
+        <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
       <c r="I18" t="s">
@@ -5444,11 +5463,11 @@
         <v>8</v>
       </c>
       <c r="G19" s="3">
-        <f>F19-E19</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H19" s="3">
-        <f>IF(F19&gt;50,G19*0.2,G19*0.01)</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I19" t="s">
@@ -5481,11 +5500,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G20" s="3">
-        <f>F20-E20</f>
+        <f t="shared" si="0"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H20" s="3">
-        <f>IF(F20&gt;50,G20*0.2,G20*0.01)</f>
+        <f t="shared" si="1"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I20" t="s">
@@ -5518,11 +5537,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G21" s="3">
-        <f>F21-E21</f>
+        <f t="shared" si="0"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H21" s="3">
-        <f>IF(F21&gt;50,G21*0.2,G21*0.01)</f>
+        <f t="shared" si="1"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I21" t="s">
@@ -5555,11 +5574,11 @@
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <f>F22-E22</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H22" s="3">
-        <f>IF(F22&gt;50,G22*0.2,G22*0.01)</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I22" t="s">
@@ -5592,11 +5611,11 @@
         <v>16.3</v>
       </c>
       <c r="G23" s="3">
-        <f>F23-E23</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H23" s="3">
-        <f>IF(F23&gt;50,G23*0.2,G23*0.01)</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I23" t="s">
@@ -5629,11 +5648,11 @@
         <v>8</v>
       </c>
       <c r="G24" s="3">
-        <f>F24-E24</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H24" s="3">
-        <f>IF(F24&gt;50,G24*0.2,G24*0.01)</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I24" t="s">
@@ -5666,11 +5685,11 @@
         <v>7</v>
       </c>
       <c r="G25" s="3">
-        <f>F25-E25</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H25" s="3">
-        <f>IF(F25&gt;50,G25*0.2,G25*0.01)</f>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="I25" t="s">
@@ -5703,11 +5722,11 @@
         <v>16.3</v>
       </c>
       <c r="G26" s="3">
-        <f>F26-E26</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H26" s="3">
-        <f>IF(F26&gt;50,G26*0.2,G26*0.01)</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I26" t="s">
@@ -5740,11 +5759,11 @@
         <v>14</v>
       </c>
       <c r="G27" s="3">
-        <f>F27-E27</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H27" s="3">
-        <f>IF(F27&gt;50,G27*0.2,G27*0.01)</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I27" t="s">
@@ -5777,11 +5796,11 @@
         <v>14</v>
       </c>
       <c r="G28" s="3">
-        <f>F28-E28</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H28" s="3">
-        <f>IF(F28&gt;50,G28*0.2,G28*0.01)</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I28" t="s">
@@ -5814,11 +5833,11 @@
         <v>502</v>
       </c>
       <c r="G29" s="3">
-        <f>F29-E29</f>
+        <f t="shared" si="0"/>
         <v>158</v>
       </c>
       <c r="H29" s="3">
-        <f>IF(F29&gt;50,G29*0.2,G29*0.01)</f>
+        <f t="shared" si="1"/>
         <v>31.6</v>
       </c>
       <c r="I29" t="s">
@@ -5851,11 +5870,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G30" s="3">
-        <f>F30-E30</f>
+        <f t="shared" si="0"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H30" s="3">
-        <f>IF(F30&gt;50,G30*0.2,G30*0.01)</f>
+        <f t="shared" si="1"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I30" t="s">
@@ -5888,11 +5907,11 @@
         <v>87</v>
       </c>
       <c r="G31" s="3">
-        <f>F31-E31</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="H31" s="3">
-        <f>IF(F31&gt;50,G31*0.2,G31*0.01)</f>
+        <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
       <c r="I31" t="s">
@@ -5925,11 +5944,11 @@
         <v>8</v>
       </c>
       <c r="G32" s="3">
-        <f>F32-E32</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H32" s="3">
-        <f>IF(F32&gt;50,G32*0.2,G32*0.01)</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I32" t="s">
@@ -5962,11 +5981,11 @@
         <v>16.3</v>
       </c>
       <c r="G33" s="3">
-        <f>F33-E33</f>
+        <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H33" s="3">
-        <f>IF(F33&gt;50,G33*0.2,G33*0.01)</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I33" t="s">
@@ -5999,11 +6018,11 @@
         <v>98.4</v>
       </c>
       <c r="G34" s="3">
-        <f>F34-E34</f>
+        <f t="shared" ref="G34:G65" si="2">F34-E34</f>
         <v>40.100000000000009</v>
       </c>
       <c r="H34" s="3">
-        <f>IF(F34&gt;50,G34*0.2,G34*0.01)</f>
+        <f t="shared" ref="H34:H65" si="3">IF(F34&gt;50,G34*0.2,G34*0.01)</f>
         <v>8.0200000000000014</v>
       </c>
       <c r="I34" t="s">
@@ -6036,11 +6055,11 @@
         <v>16.3</v>
       </c>
       <c r="G35" s="3">
-        <f>F35-E35</f>
+        <f t="shared" si="2"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H35" s="3">
-        <f>IF(F35&gt;50,G35*0.2,G35*0.01)</f>
+        <f t="shared" si="3"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I35" t="s">
@@ -6073,11 +6092,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G36" s="3">
-        <f>F36-E36</f>
+        <f t="shared" si="2"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H36" s="3">
-        <f>IF(F36&gt;50,G36*0.2,G36*0.01)</f>
+        <f t="shared" si="3"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I36" t="s">
@@ -6110,11 +6129,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G37" s="3">
-        <f>F37-E37</f>
+        <f t="shared" si="2"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H37" s="3">
-        <f>IF(F37&gt;50,G37*0.2,G37*0.01)</f>
+        <f t="shared" si="3"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I37" t="s">
@@ -6147,11 +6166,11 @@
         <v>77</v>
       </c>
       <c r="G38" s="3">
-        <f>F38-E38</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="H38" s="3">
-        <f>IF(F38&gt;50,G38*0.2,G38*0.01)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I38" t="s">
@@ -6184,11 +6203,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G39" s="3">
-        <f>F39-E39</f>
+        <f t="shared" si="2"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H39" s="3">
-        <f>IF(F39&gt;50,G39*0.2,G39*0.01)</f>
+        <f t="shared" si="3"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I39" t="s">
@@ -6221,11 +6240,11 @@
         <v>16.3</v>
       </c>
       <c r="G40" s="3">
-        <f>F40-E40</f>
+        <f t="shared" si="2"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H40" s="3">
-        <f>IF(F40&gt;50,G40*0.2,G40*0.01)</f>
+        <f t="shared" si="3"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I40" t="s">
@@ -6258,11 +6277,11 @@
         <v>8</v>
       </c>
       <c r="G41" s="3">
-        <f>F41-E41</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H41" s="3">
-        <f>IF(F41&gt;50,G41*0.2,G41*0.01)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="I41" t="s">
@@ -6295,11 +6314,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G42" s="3">
-        <f>F42-E42</f>
+        <f t="shared" si="2"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H42" s="3">
-        <f>IF(F42&gt;50,G42*0.2,G42*0.01)</f>
+        <f t="shared" si="3"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I42" t="s">
@@ -6332,11 +6351,11 @@
         <v>502</v>
       </c>
       <c r="G43" s="3">
-        <f>F43-E43</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="H43" s="3">
-        <f>IF(F43&gt;50,G43*0.2,G43*0.01)</f>
+        <f t="shared" si="3"/>
         <v>31.6</v>
       </c>
       <c r="I43" t="s">
@@ -6369,11 +6388,11 @@
         <v>124</v>
       </c>
       <c r="G44" s="3">
-        <f>F44-E44</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="H44" s="3">
-        <f>IF(F44&gt;50,G44*0.2,G44*0.01)</f>
+        <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
       <c r="I44" t="s">
@@ -6406,11 +6425,11 @@
         <v>16.3</v>
       </c>
       <c r="G45" s="3">
-        <f>F45-E45</f>
+        <f t="shared" si="2"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H45" s="3">
-        <f>IF(F45&gt;50,G45*0.2,G45*0.01)</f>
+        <f t="shared" si="3"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I45" t="s">
@@ -6443,11 +6462,11 @@
         <v>502</v>
       </c>
       <c r="G46" s="3">
-        <f>F46-E46</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="H46" s="3">
-        <f>IF(F46&gt;50,G46*0.2,G46*0.01)</f>
+        <f t="shared" si="3"/>
         <v>31.6</v>
       </c>
       <c r="I46" t="s">
@@ -6480,11 +6499,11 @@
         <v>14</v>
       </c>
       <c r="G47" s="3">
-        <f>F47-E47</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H47" s="3">
-        <f>IF(F47&gt;50,G47*0.2,G47*0.01)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="I47" t="s">
@@ -6517,11 +6536,11 @@
         <v>77</v>
       </c>
       <c r="G48" s="3">
-        <f>F48-E48</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="H48" s="3">
-        <f>IF(F48&gt;50,G48*0.2,G48*0.01)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I48" t="s">
@@ -6554,11 +6573,11 @@
         <v>502</v>
       </c>
       <c r="G49" s="3">
-        <f>F49-E49</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="H49" s="3">
-        <f>IF(F49&gt;50,G49*0.2,G49*0.01)</f>
+        <f t="shared" si="3"/>
         <v>31.6</v>
       </c>
       <c r="I49" t="s">
@@ -6591,11 +6610,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G50" s="3">
-        <f>F50-E50</f>
+        <f t="shared" si="2"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H50" s="3">
-        <f>IF(F50&gt;50,G50*0.2,G50*0.01)</f>
+        <f t="shared" si="3"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I50" t="s">
@@ -6628,11 +6647,11 @@
         <v>16.3</v>
       </c>
       <c r="G51" s="3">
-        <f>F51-E51</f>
+        <f t="shared" si="2"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H51" s="3">
-        <f>IF(F51&gt;50,G51*0.2,G51*0.01)</f>
+        <f t="shared" si="3"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I51" t="s">
@@ -6665,11 +6684,11 @@
         <v>14</v>
       </c>
       <c r="G52" s="3">
-        <f>F52-E52</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H52" s="3">
-        <f>IF(F52&gt;50,G52*0.2,G52*0.01)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="I52" t="s">
@@ -6702,11 +6721,11 @@
         <v>77</v>
       </c>
       <c r="G53" s="3">
-        <f>F53-E53</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="H53" s="3">
-        <f>IF(F53&gt;50,G53*0.2,G53*0.01)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I53" t="s">
@@ -6739,11 +6758,11 @@
         <v>124</v>
       </c>
       <c r="G54" s="3">
-        <f>F54-E54</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="H54" s="3">
-        <f>IF(F54&gt;50,G54*0.2,G54*0.01)</f>
+        <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
       <c r="I54" t="s">
@@ -6776,11 +6795,11 @@
         <v>87</v>
       </c>
       <c r="G55" s="3">
-        <f>F55-E55</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="H55" s="3">
-        <f>IF(F55&gt;50,G55*0.2,G55*0.01)</f>
+        <f t="shared" si="3"/>
         <v>8.4</v>
       </c>
       <c r="I55" t="s">
@@ -6813,11 +6832,11 @@
         <v>14</v>
       </c>
       <c r="G56" s="3">
-        <f>F56-E56</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H56" s="3">
-        <f>IF(F56&gt;50,G56*0.2,G56*0.01)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="I56" t="s">
@@ -6850,11 +6869,11 @@
         <v>8</v>
       </c>
       <c r="G57" s="3">
-        <f>F57-E57</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H57" s="3">
-        <f>IF(F57&gt;50,G57*0.2,G57*0.01)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="I57" t="s">
@@ -6887,11 +6906,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G58" s="3">
-        <f>F58-E58</f>
+        <f t="shared" si="2"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H58" s="3">
-        <f>IF(F58&gt;50,G58*0.2,G58*0.01)</f>
+        <f t="shared" si="3"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I58" t="s">
@@ -6924,11 +6943,11 @@
         <v>14</v>
       </c>
       <c r="G59" s="3">
-        <f>F59-E59</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H59" s="3">
-        <f>IF(F59&gt;50,G59*0.2,G59*0.01)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="I59" t="s">
@@ -6961,11 +6980,11 @@
         <v>124</v>
       </c>
       <c r="G60" s="3">
-        <f>F60-E60</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="H60" s="3">
-        <f>IF(F60&gt;50,G60*0.2,G60*0.01)</f>
+        <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
       <c r="I60" t="s">
@@ -6998,11 +7017,11 @@
         <v>14</v>
       </c>
       <c r="G61" s="3">
-        <f>F61-E61</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H61" s="3">
-        <f>IF(F61&gt;50,G61*0.2,G61*0.01)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="I61" t="s">
@@ -7035,11 +7054,11 @@
         <v>8</v>
       </c>
       <c r="G62" s="3">
-        <f>F62-E62</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H62" s="3">
-        <f>IF(F62&gt;50,G62*0.2,G62*0.01)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="I62" t="s">
@@ -7072,11 +7091,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G63" s="3">
-        <f>F63-E63</f>
+        <f t="shared" si="2"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H63" s="3">
-        <f>IF(F63&gt;50,G63*0.2,G63*0.01)</f>
+        <f t="shared" si="3"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I63" t="s">
@@ -7109,11 +7128,11 @@
         <v>8</v>
       </c>
       <c r="G64" s="3">
-        <f>F64-E64</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H64" s="3">
-        <f>IF(F64&gt;50,G64*0.2,G64*0.01)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="I64" t="s">
@@ -7146,11 +7165,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G65" s="3">
-        <f>F65-E65</f>
+        <f t="shared" si="2"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H65" s="3">
-        <f>IF(F65&gt;50,G65*0.2,G65*0.01)</f>
+        <f t="shared" si="3"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I65" t="s">
@@ -7183,11 +7202,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G66" s="3">
-        <f>F66-E66</f>
+        <f t="shared" ref="G66:G97" si="4">F66-E66</f>
         <v>2.9999999999999991</v>
       </c>
       <c r="H66" s="3">
-        <f>IF(F66&gt;50,G66*0.2,G66*0.01)</f>
+        <f t="shared" ref="H66:H97" si="5">IF(F66&gt;50,G66*0.2,G66*0.01)</f>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I66" t="s">
@@ -7220,11 +7239,11 @@
         <v>16.3</v>
       </c>
       <c r="G67" s="3">
-        <f>F67-E67</f>
+        <f t="shared" si="4"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H67" s="3">
-        <f>IF(F67&gt;50,G67*0.2,G67*0.01)</f>
+        <f t="shared" si="5"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I67" t="s">
@@ -7257,11 +7276,11 @@
         <v>16.3</v>
       </c>
       <c r="G68" s="3">
-        <f>F68-E68</f>
+        <f t="shared" si="4"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H68" s="3">
-        <f>IF(F68&gt;50,G68*0.2,G68*0.01)</f>
+        <f t="shared" si="5"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I68" t="s">
@@ -7294,11 +7313,11 @@
         <v>14</v>
       </c>
       <c r="G69" s="3">
-        <f>F69-E69</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H69" s="3">
-        <f>IF(F69&gt;50,G69*0.2,G69*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I69" t="s">
@@ -7331,11 +7350,11 @@
         <v>8</v>
       </c>
       <c r="G70" s="3">
-        <f>F70-E70</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H70" s="3">
-        <f>IF(F70&gt;50,G70*0.2,G70*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I70" t="s">
@@ -7368,11 +7387,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G71" s="3">
-        <f>F71-E71</f>
+        <f t="shared" si="4"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H71" s="3">
-        <f>IF(F71&gt;50,G71*0.2,G71*0.01)</f>
+        <f t="shared" si="5"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I71" t="s">
@@ -7405,11 +7424,11 @@
         <v>8</v>
       </c>
       <c r="G72" s="3">
-        <f>F72-E72</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <f>IF(F72&gt;50,G72*0.2,G72*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I72" t="s">
@@ -7442,11 +7461,11 @@
         <v>8</v>
       </c>
       <c r="G73" s="3">
-        <f>F73-E73</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H73" s="3">
-        <f>IF(F73&gt;50,G73*0.2,G73*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I73" t="s">
@@ -7479,11 +7498,11 @@
         <v>77</v>
       </c>
       <c r="G74" s="3">
-        <f>F74-E74</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="H74" s="3">
-        <f>IF(F74&gt;50,G74*0.2,G74*0.01)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I74" t="s">
@@ -7516,11 +7535,11 @@
         <v>16.3</v>
       </c>
       <c r="G75" s="3">
-        <f>F75-E75</f>
+        <f t="shared" si="4"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H75" s="3">
-        <f>IF(F75&gt;50,G75*0.2,G75*0.01)</f>
+        <f t="shared" si="5"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I75" t="s">
@@ -7553,11 +7572,11 @@
         <v>8</v>
       </c>
       <c r="G76" s="3">
-        <f>F76-E76</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H76" s="3">
-        <f>IF(F76&gt;50,G76*0.2,G76*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I76" t="s">
@@ -7590,11 +7609,11 @@
         <v>8</v>
       </c>
       <c r="G77" s="3">
-        <f>F77-E77</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H77" s="3">
-        <f>IF(F77&gt;50,G77*0.2,G77*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I77" t="s">
@@ -7627,11 +7646,11 @@
         <v>98.4</v>
       </c>
       <c r="G78" s="3">
-        <f>F78-E78</f>
+        <f t="shared" si="4"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H78" s="3">
-        <f>IF(F78&gt;50,G78*0.2,G78*0.01)</f>
+        <f t="shared" si="5"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I78" t="s">
@@ -7664,11 +7683,11 @@
         <v>16.3</v>
       </c>
       <c r="G79" s="3">
-        <f>F79-E79</f>
+        <f t="shared" si="4"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H79" s="3">
-        <f>IF(F79&gt;50,G79*0.2,G79*0.01)</f>
+        <f t="shared" si="5"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I79" t="s">
@@ -7701,11 +7720,11 @@
         <v>16.3</v>
       </c>
       <c r="G80" s="3">
-        <f>F80-E80</f>
+        <f t="shared" si="4"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H80" s="3">
-        <f>IF(F80&gt;50,G80*0.2,G80*0.01)</f>
+        <f t="shared" si="5"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I80" t="s">
@@ -7738,11 +7757,11 @@
         <v>87</v>
       </c>
       <c r="G81" s="3">
-        <f>F81-E81</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="H81" s="3">
-        <f>IF(F81&gt;50,G81*0.2,G81*0.01)</f>
+        <f t="shared" si="5"/>
         <v>8.4</v>
       </c>
       <c r="I81" t="s">
@@ -7775,11 +7794,11 @@
         <v>14</v>
       </c>
       <c r="G82" s="3">
-        <f>F82-E82</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H82" s="3">
-        <f>IF(F82&gt;50,G82*0.2,G82*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I82" t="s">
@@ -7812,11 +7831,11 @@
         <v>8</v>
       </c>
       <c r="G83" s="3">
-        <f>F83-E83</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H83" s="3">
-        <f>IF(F83&gt;50,G83*0.2,G83*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I83" t="s">
@@ -7849,11 +7868,11 @@
         <v>8</v>
       </c>
       <c r="G84" s="3">
-        <f>F84-E84</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H84" s="3">
-        <f>IF(F84&gt;50,G84*0.2,G84*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I84" t="s">
@@ -7886,11 +7905,11 @@
         <v>14</v>
       </c>
       <c r="G85" s="3">
-        <f>F85-E85</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H85" s="3">
-        <f>IF(F85&gt;50,G85*0.2,G85*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I85" t="s">
@@ -7923,11 +7942,11 @@
         <v>98.4</v>
       </c>
       <c r="G86" s="3">
-        <f>F86-E86</f>
+        <f t="shared" si="4"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H86" s="3">
-        <f>IF(F86&gt;50,G86*0.2,G86*0.01)</f>
+        <f t="shared" si="5"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I86" t="s">
@@ -7960,11 +7979,11 @@
         <v>8</v>
       </c>
       <c r="G87" s="3">
-        <f>F87-E87</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H87" s="3">
-        <f>IF(F87&gt;50,G87*0.2,G87*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I87" t="s">
@@ -7997,11 +8016,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G88" s="3">
-        <f>F88-E88</f>
+        <f t="shared" si="4"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H88" s="3">
-        <f>IF(F88&gt;50,G88*0.2,G88*0.01)</f>
+        <f t="shared" si="5"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I88" t="s">
@@ -8034,11 +8053,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G89" s="3">
-        <f>F89-E89</f>
+        <f t="shared" si="4"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H89" s="3">
-        <f>IF(F89&gt;50,G89*0.2,G89*0.01)</f>
+        <f t="shared" si="5"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I89" t="s">
@@ -8071,11 +8090,11 @@
         <v>14</v>
       </c>
       <c r="G90" s="3">
-        <f>F90-E90</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H90" s="3">
-        <f>IF(F90&gt;50,G90*0.2,G90*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I90" t="s">
@@ -8108,11 +8127,11 @@
         <v>16.3</v>
       </c>
       <c r="G91" s="3">
-        <f>F91-E91</f>
+        <f t="shared" si="4"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H91" s="3">
-        <f>IF(F91&gt;50,G91*0.2,G91*0.01)</f>
+        <f t="shared" si="5"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I91" t="s">
@@ -8145,11 +8164,11 @@
         <v>16.3</v>
       </c>
       <c r="G92" s="3">
-        <f>F92-E92</f>
+        <f t="shared" si="4"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H92" s="3">
-        <f>IF(F92&gt;50,G92*0.2,G92*0.01)</f>
+        <f t="shared" si="5"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I92" t="s">
@@ -8182,11 +8201,11 @@
         <v>16.3</v>
       </c>
       <c r="G93" s="3">
-        <f>F93-E93</f>
+        <f t="shared" si="4"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H93" s="3">
-        <f>IF(F93&gt;50,G93*0.2,G93*0.01)</f>
+        <f t="shared" si="5"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I93" t="s">
@@ -8219,11 +8238,11 @@
         <v>14</v>
       </c>
       <c r="G94" s="3">
-        <f>F94-E94</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <f>IF(F94&gt;50,G94*0.2,G94*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I94" t="s">
@@ -8256,11 +8275,11 @@
         <v>14</v>
       </c>
       <c r="G95" s="3">
-        <f>F95-E95</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H95" s="3">
-        <f>IF(F95&gt;50,G95*0.2,G95*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I95" t="s">
@@ -8293,11 +8312,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G96" s="3">
-        <f>F96-E96</f>
+        <f t="shared" si="4"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H96" s="3">
-        <f>IF(F96&gt;50,G96*0.2,G96*0.01)</f>
+        <f t="shared" si="5"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I96" t="s">
@@ -8330,11 +8349,11 @@
         <v>14</v>
       </c>
       <c r="G97" s="3">
-        <f>F97-E97</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H97" s="3">
-        <f>IF(F97&gt;50,G97*0.2,G97*0.01)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I97" t="s">
@@ -8367,11 +8386,11 @@
         <v>7</v>
       </c>
       <c r="G98" s="3">
-        <f>F98-E98</f>
+        <f t="shared" ref="G98:G129" si="6">F98-E98</f>
         <v>3</v>
       </c>
       <c r="H98" s="3">
-        <f>IF(F98&gt;50,G98*0.2,G98*0.01)</f>
+        <f t="shared" ref="H98:H129" si="7">IF(F98&gt;50,G98*0.2,G98*0.01)</f>
         <v>0.03</v>
       </c>
       <c r="I98" t="s">
@@ -8404,11 +8423,11 @@
         <v>16.3</v>
       </c>
       <c r="G99" s="3">
-        <f>F99-E99</f>
+        <f t="shared" si="6"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H99" s="3">
-        <f>IF(F99&gt;50,G99*0.2,G99*0.01)</f>
+        <f t="shared" si="7"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I99" t="s">
@@ -8441,11 +8460,11 @@
         <v>16.3</v>
       </c>
       <c r="G100" s="3">
-        <f>F100-E100</f>
+        <f t="shared" si="6"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H100" s="3">
-        <f>IF(F100&gt;50,G100*0.2,G100*0.01)</f>
+        <f t="shared" si="7"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I100" t="s">
@@ -8478,11 +8497,11 @@
         <v>14</v>
       </c>
       <c r="G101" s="3">
-        <f>F101-E101</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <f>IF(F101&gt;50,G101*0.2,G101*0.01)</f>
+        <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
       <c r="I101" t="s">
@@ -8515,11 +8534,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G102" s="3">
-        <f>F102-E102</f>
+        <f t="shared" si="6"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H102" s="3">
-        <f>IF(F102&gt;50,G102*0.2,G102*0.01)</f>
+        <f t="shared" si="7"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I102" t="s">
@@ -8552,11 +8571,11 @@
         <v>124</v>
       </c>
       <c r="G103" s="3">
-        <f>F103-E103</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="H103" s="3">
-        <f>IF(F103&gt;50,G103*0.2,G103*0.01)</f>
+        <f t="shared" si="7"/>
         <v>12.8</v>
       </c>
       <c r="I103" t="s">
@@ -8589,11 +8608,11 @@
         <v>16.3</v>
       </c>
       <c r="G104" s="3">
-        <f>F104-E104</f>
+        <f t="shared" si="6"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H104" s="3">
-        <f>IF(F104&gt;50,G104*0.2,G104*0.01)</f>
+        <f t="shared" si="7"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I104" t="s">
@@ -8626,11 +8645,11 @@
         <v>16.3</v>
       </c>
       <c r="G105" s="3">
-        <f>F105-E105</f>
+        <f t="shared" si="6"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H105" s="3">
-        <f>IF(F105&gt;50,G105*0.2,G105*0.01)</f>
+        <f t="shared" si="7"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I105" t="s">
@@ -8663,11 +8682,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G106" s="3">
-        <f>F106-E106</f>
+        <f t="shared" si="6"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="H106" s="3">
-        <f>IF(F106&gt;50,G106*0.2,G106*0.01)</f>
+        <f t="shared" si="7"/>
         <v>2.9999999999999992E-2</v>
       </c>
       <c r="I106" t="s">
@@ -8700,11 +8719,11 @@
         <v>98.4</v>
       </c>
       <c r="G107" s="3">
-        <f>F107-E107</f>
+        <f t="shared" si="6"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H107" s="3">
-        <f>IF(F107&gt;50,G107*0.2,G107*0.01)</f>
+        <f t="shared" si="7"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I107" t="s">
@@ -8737,11 +8756,11 @@
         <v>8</v>
       </c>
       <c r="G108" s="3">
-        <f>F108-E108</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H108" s="3">
-        <f>IF(F108&gt;50,G108*0.2,G108*0.01)</f>
+        <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
       <c r="I108" t="s">
@@ -8774,11 +8793,11 @@
         <v>98.4</v>
       </c>
       <c r="G109" s="3">
-        <f>F109-E109</f>
+        <f t="shared" si="6"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H109" s="3">
-        <f>IF(F109&gt;50,G109*0.2,G109*0.01)</f>
+        <f t="shared" si="7"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I109" t="s">
@@ -8811,11 +8830,11 @@
         <v>502</v>
       </c>
       <c r="G110" s="3">
-        <f>F110-E110</f>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="H110" s="3">
-        <f>IF(F110&gt;50,G110*0.2,G110*0.01)</f>
+        <f t="shared" si="7"/>
         <v>31.6</v>
       </c>
       <c r="I110" t="s">
@@ -8848,11 +8867,11 @@
         <v>502</v>
       </c>
       <c r="G111" s="3">
-        <f>F111-E111</f>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="H111" s="3">
-        <f>IF(F111&gt;50,G111*0.2,G111*0.01)</f>
+        <f t="shared" si="7"/>
         <v>31.6</v>
       </c>
       <c r="I111" t="s">
@@ -8885,11 +8904,11 @@
         <v>77</v>
       </c>
       <c r="G112" s="3">
-        <f>F112-E112</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="H112" s="3">
-        <f>IF(F112&gt;50,G112*0.2,G112*0.01)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I112" t="s">
@@ -8922,11 +8941,11 @@
         <v>77</v>
       </c>
       <c r="G113" s="3">
-        <f>F113-E113</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="H113" s="3">
-        <f>IF(F113&gt;50,G113*0.2,G113*0.01)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I113" t="s">
@@ -8959,11 +8978,11 @@
         <v>98.4</v>
       </c>
       <c r="G114" s="3">
-        <f>F114-E114</f>
+        <f t="shared" si="6"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H114" s="3">
-        <f>IF(F114&gt;50,G114*0.2,G114*0.01)</f>
+        <f t="shared" si="7"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I114" t="s">
@@ -8996,11 +9015,11 @@
         <v>124</v>
       </c>
       <c r="G115" s="3">
-        <f>F115-E115</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="H115" s="3">
-        <f>IF(F115&gt;50,G115*0.2,G115*0.01)</f>
+        <f t="shared" si="7"/>
         <v>12.8</v>
       </c>
       <c r="I115" t="s">
@@ -9033,11 +9052,11 @@
         <v>502</v>
       </c>
       <c r="G116" s="3">
-        <f>F116-E116</f>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="H116" s="3">
-        <f>IF(F116&gt;50,G116*0.2,G116*0.01)</f>
+        <f t="shared" si="7"/>
         <v>31.6</v>
       </c>
       <c r="I116" t="s">
@@ -9070,11 +9089,11 @@
         <v>77</v>
       </c>
       <c r="G117" s="3">
-        <f>F117-E117</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="H117" s="3">
-        <f>IF(F117&gt;50,G117*0.2,G117*0.01)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I117" t="s">
@@ -9107,11 +9126,11 @@
         <v>502</v>
       </c>
       <c r="G118" s="3">
-        <f>F118-E118</f>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="H118" s="3">
-        <f>IF(F118&gt;50,G118*0.2,G118*0.01)</f>
+        <f t="shared" si="7"/>
         <v>31.6</v>
       </c>
       <c r="I118" t="s">
@@ -9144,11 +9163,11 @@
         <v>98.4</v>
       </c>
       <c r="G119" s="3">
-        <f>F119-E119</f>
+        <f t="shared" si="6"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H119" s="3">
-        <f>IF(F119&gt;50,G119*0.2,G119*0.01)</f>
+        <f t="shared" si="7"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I119" t="s">
@@ -9181,11 +9200,11 @@
         <v>124</v>
       </c>
       <c r="G120" s="3">
-        <f>F120-E120</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="H120" s="3">
-        <f>IF(F120&gt;50,G120*0.2,G120*0.01)</f>
+        <f t="shared" si="7"/>
         <v>12.8</v>
       </c>
       <c r="I120" t="s">
@@ -9218,11 +9237,11 @@
         <v>124</v>
       </c>
       <c r="G121" s="3">
-        <f>F121-E121</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="H121" s="3">
-        <f>IF(F121&gt;50,G121*0.2,G121*0.01)</f>
+        <f t="shared" si="7"/>
         <v>12.8</v>
       </c>
       <c r="I121" t="s">
@@ -9255,11 +9274,11 @@
         <v>87</v>
       </c>
       <c r="G122" s="3">
-        <f>F122-E122</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="H122" s="3">
-        <f>IF(F122&gt;50,G122*0.2,G122*0.01)</f>
+        <f t="shared" si="7"/>
         <v>8.4</v>
       </c>
       <c r="I122" t="s">
@@ -9292,11 +9311,11 @@
         <v>502</v>
       </c>
       <c r="G123" s="3">
-        <f>F123-E123</f>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="H123" s="3">
-        <f>IF(F123&gt;50,G123*0.2,G123*0.01)</f>
+        <f t="shared" si="7"/>
         <v>31.6</v>
       </c>
       <c r="I123" t="s">
@@ -9329,11 +9348,11 @@
         <v>98.4</v>
       </c>
       <c r="G124" s="3">
-        <f>F124-E124</f>
+        <f t="shared" si="6"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H124" s="3">
-        <f>IF(F124&gt;50,G124*0.2,G124*0.01)</f>
+        <f t="shared" si="7"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I124" t="s">
@@ -9366,11 +9385,11 @@
         <v>87</v>
       </c>
       <c r="G125" s="3">
-        <f>F125-E125</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="H125" s="3">
-        <f>IF(F125&gt;50,G125*0.2,G125*0.01)</f>
+        <f t="shared" si="7"/>
         <v>8.4</v>
       </c>
       <c r="I125" t="s">
@@ -9403,11 +9422,11 @@
         <v>124</v>
       </c>
       <c r="G126" s="3">
-        <f>F126-E126</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="H126" s="3">
-        <f>IF(F126&gt;50,G126*0.2,G126*0.01)</f>
+        <f t="shared" si="7"/>
         <v>12.8</v>
       </c>
       <c r="I126" t="s">
@@ -9440,11 +9459,11 @@
         <v>7</v>
       </c>
       <c r="G127" s="3">
-        <f>F127-E127</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H127" s="3">
-        <f>IF(F127&gt;50,G127*0.2,G127*0.01)</f>
+        <f t="shared" si="7"/>
         <v>0.03</v>
       </c>
       <c r="I127" t="s">
@@ -9477,11 +9496,11 @@
         <v>502</v>
       </c>
       <c r="G128" s="3">
-        <f>F128-E128</f>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="H128" s="3">
-        <f>IF(F128&gt;50,G128*0.2,G128*0.01)</f>
+        <f t="shared" si="7"/>
         <v>31.6</v>
       </c>
       <c r="I128" t="s">
@@ -9514,11 +9533,11 @@
         <v>77</v>
       </c>
       <c r="G129" s="3">
-        <f>F129-E129</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="H129" s="3">
-        <f>IF(F129&gt;50,G129*0.2,G129*0.01)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I129" t="s">
@@ -9551,11 +9570,11 @@
         <v>98.4</v>
       </c>
       <c r="G130" s="3">
-        <f>F130-E130</f>
+        <f t="shared" ref="G130:G161" si="8">F130-E130</f>
         <v>40.100000000000009</v>
       </c>
       <c r="H130" s="3">
-        <f>IF(F130&gt;50,G130*0.2,G130*0.01)</f>
+        <f t="shared" ref="H130:H161" si="9">IF(F130&gt;50,G130*0.2,G130*0.01)</f>
         <v>8.0200000000000014</v>
       </c>
       <c r="I130" t="s">
@@ -9588,11 +9607,11 @@
         <v>87</v>
       </c>
       <c r="G131" s="3">
-        <f>F131-E131</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="H131" s="3">
-        <f>IF(F131&gt;50,G131*0.2,G131*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
       <c r="I131" t="s">
@@ -9625,11 +9644,11 @@
         <v>7</v>
       </c>
       <c r="G132" s="3">
-        <f>F132-E132</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H132" s="3">
-        <f>IF(F132&gt;50,G132*0.2,G132*0.01)</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="I132" t="s">
@@ -9662,11 +9681,11 @@
         <v>7</v>
       </c>
       <c r="G133" s="3">
-        <f>F133-E133</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H133" s="3">
-        <f>IF(F133&gt;50,G133*0.2,G133*0.01)</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="I133" t="s">
@@ -9699,11 +9718,11 @@
         <v>98.4</v>
       </c>
       <c r="G134" s="3">
-        <f>F134-E134</f>
+        <f t="shared" si="8"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H134" s="3">
-        <f>IF(F134&gt;50,G134*0.2,G134*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I134" t="s">
@@ -9736,11 +9755,11 @@
         <v>98.4</v>
       </c>
       <c r="G135" s="3">
-        <f>F135-E135</f>
+        <f t="shared" si="8"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H135" s="3">
-        <f>IF(F135&gt;50,G135*0.2,G135*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I135" t="s">
@@ -9773,11 +9792,11 @@
         <v>502</v>
       </c>
       <c r="G136" s="3">
-        <f>F136-E136</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="H136" s="3">
-        <f>IF(F136&gt;50,G136*0.2,G136*0.01)</f>
+        <f t="shared" si="9"/>
         <v>31.6</v>
       </c>
       <c r="I136" t="s">
@@ -9810,11 +9829,11 @@
         <v>124</v>
       </c>
       <c r="G137" s="3">
-        <f>F137-E137</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="H137" s="3">
-        <f>IF(F137&gt;50,G137*0.2,G137*0.01)</f>
+        <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
       <c r="I137" t="s">
@@ -9847,11 +9866,11 @@
         <v>98.4</v>
       </c>
       <c r="G138" s="3">
-        <f>F138-E138</f>
+        <f t="shared" si="8"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H138" s="3">
-        <f>IF(F138&gt;50,G138*0.2,G138*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I138" t="s">
@@ -9884,11 +9903,11 @@
         <v>502</v>
       </c>
       <c r="G139" s="3">
-        <f>F139-E139</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="H139" s="3">
-        <f>IF(F139&gt;50,G139*0.2,G139*0.01)</f>
+        <f t="shared" si="9"/>
         <v>31.6</v>
       </c>
       <c r="I139" t="s">
@@ -9921,11 +9940,11 @@
         <v>87</v>
       </c>
       <c r="G140" s="3">
-        <f>F140-E140</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="H140" s="3">
-        <f>IF(F140&gt;50,G140*0.2,G140*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
       <c r="I140" t="s">
@@ -9958,11 +9977,11 @@
         <v>87</v>
       </c>
       <c r="G141" s="3">
-        <f>F141-E141</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="H141" s="3">
-        <f>IF(F141&gt;50,G141*0.2,G141*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
       <c r="I141" t="s">
@@ -9995,11 +10014,11 @@
         <v>7</v>
       </c>
       <c r="G142" s="3">
-        <f>F142-E142</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H142" s="3">
-        <f>IF(F142&gt;50,G142*0.2,G142*0.01)</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="I142" t="s">
@@ -10032,11 +10051,11 @@
         <v>124</v>
       </c>
       <c r="G143" s="3">
-        <f>F143-E143</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="H143" s="3">
-        <f>IF(F143&gt;50,G143*0.2,G143*0.01)</f>
+        <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
       <c r="I143" t="s">
@@ -10069,11 +10088,11 @@
         <v>98.4</v>
       </c>
       <c r="G144" s="3">
-        <f>F144-E144</f>
+        <f t="shared" si="8"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H144" s="3">
-        <f>IF(F144&gt;50,G144*0.2,G144*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I144" t="s">
@@ -10106,11 +10125,11 @@
         <v>124</v>
       </c>
       <c r="G145" s="3">
-        <f>F145-E145</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="H145" s="3">
-        <f>IF(F145&gt;50,G145*0.2,G145*0.01)</f>
+        <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
       <c r="I145" t="s">
@@ -10143,11 +10162,11 @@
         <v>87</v>
       </c>
       <c r="G146" s="3">
-        <f>F146-E146</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="H146" s="3">
-        <f>IF(F146&gt;50,G146*0.2,G146*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
       <c r="I146" t="s">
@@ -10180,11 +10199,11 @@
         <v>502</v>
       </c>
       <c r="G147" s="3">
-        <f>F147-E147</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="H147" s="3">
-        <f>IF(F147&gt;50,G147*0.2,G147*0.01)</f>
+        <f t="shared" si="9"/>
         <v>31.6</v>
       </c>
       <c r="I147" t="s">
@@ -10217,11 +10236,11 @@
         <v>98.4</v>
       </c>
       <c r="G148" s="3">
-        <f>F148-E148</f>
+        <f t="shared" si="8"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H148" s="3">
-        <f>IF(F148&gt;50,G148*0.2,G148*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I148" t="s">
@@ -10254,11 +10273,11 @@
         <v>7</v>
       </c>
       <c r="G149" s="3">
-        <f>F149-E149</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H149" s="3">
-        <f>IF(F149&gt;50,G149*0.2,G149*0.01)</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="I149" t="s">
@@ -10291,11 +10310,11 @@
         <v>502</v>
       </c>
       <c r="G150" s="3">
-        <f>F150-E150</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="H150" s="3">
-        <f>IF(F150&gt;50,G150*0.2,G150*0.01)</f>
+        <f t="shared" si="9"/>
         <v>31.6</v>
       </c>
       <c r="I150" t="s">
@@ -10328,11 +10347,11 @@
         <v>124</v>
       </c>
       <c r="G151" s="3">
-        <f>F151-E151</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="H151" s="3">
-        <f>IF(F151&gt;50,G151*0.2,G151*0.01)</f>
+        <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
       <c r="I151" t="s">
@@ -10365,11 +10384,11 @@
         <v>124</v>
       </c>
       <c r="G152" s="3">
-        <f>F152-E152</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="H152" s="3">
-        <f>IF(F152&gt;50,G152*0.2,G152*0.01)</f>
+        <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
       <c r="I152" t="s">
@@ -10402,11 +10421,11 @@
         <v>87</v>
       </c>
       <c r="G153" s="3">
-        <f>F153-E153</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="H153" s="3">
-        <f>IF(F153&gt;50,G153*0.2,G153*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
       <c r="I153" t="s">
@@ -10439,11 +10458,11 @@
         <v>502</v>
       </c>
       <c r="G154" s="3">
-        <f>F154-E154</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="H154" s="3">
-        <f>IF(F154&gt;50,G154*0.2,G154*0.01)</f>
+        <f t="shared" si="9"/>
         <v>31.6</v>
       </c>
       <c r="I154" t="s">
@@ -10476,11 +10495,11 @@
         <v>98.4</v>
       </c>
       <c r="G155" s="3">
-        <f>F155-E155</f>
+        <f t="shared" si="8"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H155" s="3">
-        <f>IF(F155&gt;50,G155*0.2,G155*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I155" t="s">
@@ -10513,11 +10532,11 @@
         <v>87</v>
       </c>
       <c r="G156" s="3">
-        <f>F156-E156</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="H156" s="3">
-        <f>IF(F156&gt;50,G156*0.2,G156*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
       <c r="I156" t="s">
@@ -10550,11 +10569,11 @@
         <v>124</v>
       </c>
       <c r="G157" s="3">
-        <f>F157-E157</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="H157" s="3">
-        <f>IF(F157&gt;50,G157*0.2,G157*0.01)</f>
+        <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
       <c r="I157" t="s">
@@ -10587,11 +10606,11 @@
         <v>7</v>
       </c>
       <c r="G158" s="3">
-        <f>F158-E158</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H158" s="3">
-        <f>IF(F158&gt;50,G158*0.2,G158*0.01)</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="I158" t="s">
@@ -10624,11 +10643,11 @@
         <v>502</v>
       </c>
       <c r="G159" s="3">
-        <f>F159-E159</f>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
       <c r="H159" s="3">
-        <f>IF(F159&gt;50,G159*0.2,G159*0.01)</f>
+        <f t="shared" si="9"/>
         <v>31.6</v>
       </c>
       <c r="I159" t="s">
@@ -10661,11 +10680,11 @@
         <v>77</v>
       </c>
       <c r="G160" s="3">
-        <f>F160-E160</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="H160" s="3">
-        <f>IF(F160&gt;50,G160*0.2,G160*0.01)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I160" t="s">
@@ -10698,11 +10717,11 @@
         <v>98.4</v>
       </c>
       <c r="G161" s="3">
-        <f>F161-E161</f>
+        <f t="shared" si="8"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H161" s="3">
-        <f>IF(F161&gt;50,G161*0.2,G161*0.01)</f>
+        <f t="shared" si="9"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I161" t="s">
@@ -10735,11 +10754,11 @@
         <v>87</v>
       </c>
       <c r="G162" s="3">
-        <f>F162-E162</f>
+        <f t="shared" ref="G162:G193" si="10">F162-E162</f>
         <v>42</v>
       </c>
       <c r="H162" s="3">
-        <f>IF(F162&gt;50,G162*0.2,G162*0.01)</f>
+        <f t="shared" ref="H162:H193" si="11">IF(F162&gt;50,G162*0.2,G162*0.01)</f>
         <v>8.4</v>
       </c>
       <c r="I162" t="s">
@@ -10772,11 +10791,11 @@
         <v>7</v>
       </c>
       <c r="G163" s="3">
-        <f>F163-E163</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H163" s="3">
-        <f>IF(F163&gt;50,G163*0.2,G163*0.01)</f>
+        <f t="shared" si="11"/>
         <v>0.03</v>
       </c>
       <c r="I163" t="s">
@@ -10809,11 +10828,11 @@
         <v>7</v>
       </c>
       <c r="G164" s="3">
-        <f>F164-E164</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H164" s="3">
-        <f>IF(F164&gt;50,G164*0.2,G164*0.01)</f>
+        <f t="shared" si="11"/>
         <v>0.03</v>
       </c>
       <c r="I164" t="s">
@@ -10846,11 +10865,11 @@
         <v>98.4</v>
       </c>
       <c r="G165" s="3">
-        <f>F165-E165</f>
+        <f t="shared" si="10"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H165" s="3">
-        <f>IF(F165&gt;50,G165*0.2,G165*0.01)</f>
+        <f t="shared" si="11"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I165" t="s">
@@ -10883,11 +10902,11 @@
         <v>98.4</v>
       </c>
       <c r="G166" s="3">
-        <f>F166-E166</f>
+        <f t="shared" si="10"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H166" s="3">
-        <f>IF(F166&gt;50,G166*0.2,G166*0.01)</f>
+        <f t="shared" si="11"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I166" t="s">
@@ -10920,11 +10939,11 @@
         <v>502</v>
       </c>
       <c r="G167" s="3">
-        <f>F167-E167</f>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
       <c r="H167" s="3">
-        <f>IF(F167&gt;50,G167*0.2,G167*0.01)</f>
+        <f t="shared" si="11"/>
         <v>31.6</v>
       </c>
       <c r="I167" t="s">
@@ -10957,11 +10976,11 @@
         <v>124</v>
       </c>
       <c r="G168" s="3">
-        <f>F168-E168</f>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="H168" s="3">
-        <f>IF(F168&gt;50,G168*0.2,G168*0.01)</f>
+        <f t="shared" si="11"/>
         <v>12.8</v>
       </c>
       <c r="I168" t="s">
@@ -10994,11 +11013,11 @@
         <v>98.4</v>
       </c>
       <c r="G169" s="3">
-        <f>F169-E169</f>
+        <f t="shared" si="10"/>
         <v>40.100000000000009</v>
       </c>
       <c r="H169" s="3">
-        <f>IF(F169&gt;50,G169*0.2,G169*0.01)</f>
+        <f t="shared" si="11"/>
         <v>8.0200000000000014</v>
       </c>
       <c r="I169" t="s">
@@ -11031,11 +11050,11 @@
         <v>502</v>
       </c>
       <c r="G170" s="3">
-        <f>F170-E170</f>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
       <c r="H170" s="3">
-        <f>IF(F170&gt;50,G170*0.2,G170*0.01)</f>
+        <f t="shared" si="11"/>
         <v>31.6</v>
       </c>
       <c r="I170" t="s">
@@ -11068,11 +11087,11 @@
         <v>87</v>
       </c>
       <c r="G171" s="3">
-        <f>F171-E171</f>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="H171" s="3">
-        <f>IF(F171&gt;50,G171*0.2,G171*0.01)</f>
+        <f t="shared" si="11"/>
         <v>8.4</v>
       </c>
       <c r="I171" t="s">
@@ -11105,11 +11124,11 @@
         <v>87</v>
       </c>
       <c r="G172" s="3">
-        <f>F172-E172</f>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="H172" s="3">
-        <f>IF(F172&gt;50,G172*0.2,G172*0.01)</f>
+        <f t="shared" si="11"/>
         <v>8.4</v>
       </c>
       <c r="I172" t="s">
